--- a/data/trans_orig/P6520-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6520-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71D03BE4-6652-4DFE-8871-A7F6CF843C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B59A258F-F856-477C-B889-0637F5336668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9B3DAECA-3B27-400F-92F5-FC6C290652F3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2ECE539-FEB4-4BF5-9B7C-8C6F20530650}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
   <si>
     <t>Población según tener que trabajar los fines de semana durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>37,26%</t>
   </si>
   <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
   </si>
   <si>
     <t>38,39%</t>
   </si>
   <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
   </si>
   <si>
     <t>37,6%</t>
   </si>
   <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>32,06%</t>
   </si>
   <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
   </si>
   <si>
     <t>36,37%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
   </si>
   <si>
     <t>33,36%</t>
   </si>
   <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>17,52%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,28 +164,28 @@
     <t>13,16%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
   </si>
   <si>
     <t>14,69%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,328 +197,325 @@
     <t>44,75%</t>
   </si>
   <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
   </si>
   <si>
     <t>46,13%</t>
   </si>
   <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
   </si>
   <si>
     <t>45,15%</t>
   </si>
   <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
   </si>
   <si>
     <t>26,95%</t>
   </si>
   <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
     <t>19,81%</t>
   </si>
   <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
     <t>9,96%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -527,190 +524,190 @@
     <t>52,99%</t>
   </si>
   <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
   </si>
   <si>
     <t>60,49%</t>
   </si>
   <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
   </si>
   <si>
     <t>56,09%</t>
   </si>
   <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
   </si>
   <si>
     <t>23,69%</t>
   </si>
   <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
   </si>
   <si>
     <t>16,55%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
   </si>
   <si>
     <t>13,88%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
   </si>
   <si>
     <t>9,44%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
   </si>
   <si>
     <t>10,17%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
+    <t>12,39%</t>
   </si>
   <si>
     <t>47,3%</t>
   </si>
   <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
   </si>
   <si>
     <t>54,57%</t>
   </si>
   <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
   </si>
   <si>
     <t>49,84%</t>
   </si>
   <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
   </si>
   <si>
     <t>20,6%</t>
   </si>
   <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
   </si>
   <si>
     <t>14,89%</t>
   </si>
   <si>
-    <t>16,59%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>9,63%</t>
+    <t>9,62%</t>
   </si>
   <si>
     <t>12,54%</t>
@@ -719,19 +716,19 @@
     <t>12,59%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1146,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F08669-2882-4FB8-BE84-4AB61975E49F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF6D899-CF14-47F9-BDBC-F565E89BE9A4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1686,7 +1683,7 @@
         <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -1695,13 +1692,13 @@
         <v>14889</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
@@ -1710,13 +1707,13 @@
         <v>52889</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1772,7 +1769,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1784,13 +1781,13 @@
         <v>255429</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>134</v>
@@ -1799,13 +1796,13 @@
         <v>143344</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>367</v>
@@ -1814,13 +1811,13 @@
         <v>398773</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1835,13 +1832,13 @@
         <v>153830</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>51</v>
@@ -1850,13 +1847,13 @@
         <v>54568</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>189</v>
@@ -1865,13 +1862,13 @@
         <v>208398</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,13 +1883,13 @@
         <v>78780</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -1901,13 +1898,13 @@
         <v>28327</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -1916,13 +1913,13 @@
         <v>107107</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,13 +1934,13 @@
         <v>70856</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -1952,13 +1949,13 @@
         <v>38556</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -1967,13 +1964,13 @@
         <v>109413</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,7 +2026,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2041,13 +2038,13 @@
         <v>183261</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>108</v>
@@ -2056,13 +2053,13 @@
         <v>109291</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>280</v>
@@ -2071,13 +2068,13 @@
         <v>292551</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,13 +2089,13 @@
         <v>108338</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -2107,13 +2104,13 @@
         <v>47473</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>146</v>
@@ -2122,13 +2119,13 @@
         <v>155811</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,13 +2140,13 @@
         <v>73444</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>30</v>
@@ -2158,13 +2155,13 @@
         <v>28090</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>95</v>
@@ -2173,13 +2170,13 @@
         <v>101533</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,13 +2191,13 @@
         <v>40402</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -2209,13 +2206,13 @@
         <v>28092</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>66</v>
@@ -2224,13 +2221,13 @@
         <v>68494</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,7 +2283,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2298,13 +2295,13 @@
         <v>292786</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>224</v>
@@ -2313,13 +2310,13 @@
         <v>235359</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>527</v>
@@ -2328,13 +2325,13 @@
         <v>528145</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,13 +2346,13 @@
         <v>130884</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>61</v>
@@ -2364,13 +2361,13 @@
         <v>64375</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>202</v>
@@ -2379,13 +2376,13 @@
         <v>195259</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,13 +2397,13 @@
         <v>76723</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>42</v>
@@ -2415,13 +2412,13 @@
         <v>45723</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>120</v>
@@ -2430,13 +2427,13 @@
         <v>122446</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,13 +2448,13 @@
         <v>52189</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>40</v>
@@ -2466,13 +2463,13 @@
         <v>43603</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>90</v>
@@ -2481,13 +2478,13 @@
         <v>95792</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,13 +2552,13 @@
         <v>899124</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>534</v>
@@ -2570,13 +2567,13 @@
         <v>557802</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>1402</v>
@@ -2585,13 +2582,13 @@
         <v>1456926</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,13 +2603,13 @@
         <v>509953</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>205</v>
@@ -2621,13 +2618,13 @@
         <v>210615</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>694</v>
@@ -2636,13 +2633,13 @@
         <v>720568</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2654,13 @@
         <v>283055</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>119</v>
@@ -2672,13 +2669,13 @@
         <v>125077</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>386</v>
@@ -2687,13 +2684,13 @@
         <v>408132</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2705,13 @@
         <v>208939</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>121</v>
@@ -2723,13 +2720,13 @@
         <v>128739</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>317</v>
@@ -2738,13 +2735,13 @@
         <v>337678</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,7 +2797,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6520-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6520-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B59A258F-F856-477C-B889-0637F5336668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64BC253A-B6AC-4A10-9CC7-33B1F5FB72EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2ECE539-FEB4-4BF5-9B7C-8C6F20530650}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4C0800AE-46BB-432C-B6F0-DE15B8EF36EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="230">
   <si>
     <t>Población según tener que trabajar los fines de semana durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -74,28 +74,28 @@
     <t>37,26%</t>
   </si>
   <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
   </si>
   <si>
     <t>38,39%</t>
   </si>
   <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
   </si>
   <si>
     <t>37,6%</t>
   </si>
   <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>32,06%</t>
   </si>
   <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
   </si>
   <si>
     <t>36,37%</t>
   </si>
   <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
   </si>
   <si>
     <t>33,36%</t>
   </si>
   <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>17,52%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,523 +164,517 @@
     <t>13,16%</t>
   </si>
   <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
   </si>
   <si>
     <t>14,69%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>44,75%</t>
   </si>
   <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
   </si>
   <si>
     <t>46,13%</t>
   </si>
   <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
   </si>
   <si>
     <t>45,15%</t>
   </si>
   <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
   </si>
   <si>
     <t>26,95%</t>
   </si>
   <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
   </si>
   <si>
     <t>29,23%</t>
   </si>
   <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
     <t>24,84%</t>
   </si>
   <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
+    <t>28,94%</t>
   </si>
   <si>
     <t>20,6%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
   </si>
   <si>
     <t>14,89%</t>
   </si>
   <si>
-    <t>13,3%</t>
+    <t>13,2%</t>
   </si>
   <si>
     <t>16,7%</t>
@@ -689,46 +683,46 @@
     <t>12,24%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1143,7 +1137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF6D899-CF14-47F9-BDBC-F565E89BE9A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB04B0E1-1A05-4ABB-AD18-BFCDF6573685}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1683,7 +1677,7 @@
         <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -1692,13 +1686,13 @@
         <v>14889</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
@@ -1707,13 +1701,13 @@
         <v>52889</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,7 +1763,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1781,13 +1775,13 @@
         <v>255429</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>134</v>
@@ -1796,13 +1790,13 @@
         <v>143344</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>367</v>
@@ -1811,13 +1805,13 @@
         <v>398773</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1826,13 @@
         <v>153830</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>51</v>
@@ -1847,13 +1841,13 @@
         <v>54568</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>189</v>
@@ -1862,7 +1856,7 @@
         <v>208398</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>104</v>
@@ -2143,10 +2137,10 @@
         <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>30</v>
@@ -2155,13 +2149,13 @@
         <v>28090</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>95</v>
@@ -2170,13 +2164,13 @@
         <v>101533</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,13 +2185,13 @@
         <v>40402</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -2206,13 +2200,13 @@
         <v>28092</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>66</v>
@@ -2221,13 +2215,13 @@
         <v>68494</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,7 +2277,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2295,13 +2289,13 @@
         <v>292786</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>224</v>
@@ -2310,13 +2304,13 @@
         <v>235359</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>527</v>
@@ -2325,13 +2319,13 @@
         <v>528145</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,13 +2340,13 @@
         <v>130884</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>61</v>
@@ -2361,13 +2355,13 @@
         <v>64375</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>202</v>
@@ -2376,13 +2370,13 @@
         <v>195259</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,13 +2391,13 @@
         <v>76723</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>42</v>
@@ -2412,13 +2406,13 @@
         <v>45723</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="M26" s="7">
         <v>120</v>
@@ -2430,10 +2424,10 @@
         <v>112</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,13 +2442,13 @@
         <v>52189</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>40</v>
@@ -2463,13 +2457,13 @@
         <v>43603</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="M27" s="7">
         <v>90</v>
@@ -2478,13 +2472,13 @@
         <v>95792</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,13 +2546,13 @@
         <v>899124</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>534</v>
@@ -2567,13 +2561,13 @@
         <v>557802</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>1402</v>
@@ -2582,13 +2576,13 @@
         <v>1456926</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,13 +2597,13 @@
         <v>509953</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>205</v>
@@ -2618,13 +2612,13 @@
         <v>210615</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>694</v>
@@ -2633,13 +2627,13 @@
         <v>720568</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2648,13 @@
         <v>283055</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>119</v>
@@ -2669,13 +2663,13 @@
         <v>125077</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>386</v>
@@ -2684,13 +2678,13 @@
         <v>408132</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2699,13 @@
         <v>208939</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>121</v>
@@ -2720,13 +2714,13 @@
         <v>128739</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>317</v>
@@ -2735,13 +2729,13 @@
         <v>337678</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,7 +2791,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6520-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6520-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64BC253A-B6AC-4A10-9CC7-33B1F5FB72EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20E80E1B-6C4E-4D21-B8DB-300811B6BAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4C0800AE-46BB-432C-B6F0-DE15B8EF36EE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{47AEC71F-9842-49A5-8812-7E1F8EF72331}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="233">
   <si>
     <t>Población según tener que trabajar los fines de semana durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>37,26%</t>
   </si>
   <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
   </si>
   <si>
     <t>38,39%</t>
   </si>
   <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
   </si>
   <si>
     <t>37,6%</t>
   </si>
   <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>32,06%</t>
   </si>
   <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
   </si>
   <si>
     <t>36,37%</t>
   </si>
   <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
   </si>
   <si>
     <t>33,36%</t>
   </si>
   <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>17,52%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,10 +164,10 @@
     <t>13,16%</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
   </si>
   <si>
     <t>14,69%</t>
@@ -176,16 +176,16 @@
     <t>3,67%</t>
   </si>
   <si>
-    <t>32,35%</t>
+    <t>33,48%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,190 +197,193 @@
     <t>44,75%</t>
   </si>
   <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
   </si>
   <si>
     <t>46,13%</t>
   </si>
   <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
   </si>
   <si>
     <t>45,15%</t>
   </si>
   <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
     <t>25,3%</t>
   </si>
   <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
   </si>
   <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
   </si>
   <si>
     <t>10,7%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
   </si>
   <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
   </si>
   <si>
     <t>12,68%</t>
@@ -389,25 +392,25 @@
     <t>9,79%</t>
   </si>
   <si>
-    <t>15,72%</t>
+    <t>15,85%</t>
   </si>
   <si>
     <t>14,56%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -416,52 +419,52 @@
     <t>45,2%</t>
   </si>
   <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
   </si>
   <si>
     <t>51,32%</t>
   </si>
   <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
   </si>
   <si>
     <t>47,31%</t>
   </si>
   <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
   </si>
   <si>
     <t>26,72%</t>
   </si>
   <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
   </si>
   <si>
     <t>22,29%</t>
   </si>
   <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
   </si>
   <si>
     <t>25,2%</t>
   </si>
   <si>
-    <t>22,03%</t>
+    <t>21,48%</t>
   </si>
   <si>
     <t>28,8%</t>
@@ -470,49 +473,52 @@
     <t>18,11%</t>
   </si>
   <si>
-    <t>22,13%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
   </si>
   <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
   </si>
   <si>
     <t>16,42%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
   </si>
   <si>
     <t>9,96%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -521,208 +527,211 @@
     <t>52,99%</t>
   </si>
   <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
   </si>
   <si>
     <t>60,49%</t>
   </si>
   <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
   </si>
   <si>
     <t>56,09%</t>
   </si>
   <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
   </si>
   <si>
     <t>23,69%</t>
   </si>
   <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
   </si>
   <si>
     <t>16,55%</t>
   </si>
   <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
   </si>
   <si>
     <t>13,88%</t>
   </si>
   <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
   </si>
   <si>
     <t>9,44%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>8,02%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
   </si>
   <si>
     <t>10,17%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
   </si>
   <si>
     <t>47,3%</t>
   </si>
   <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
   </si>
   <si>
     <t>54,57%</t>
   </si>
   <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
   </si>
   <si>
     <t>49,84%</t>
   </si>
   <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
   </si>
   <si>
     <t>20,6%</t>
   </si>
   <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
   </si>
   <si>
     <t>14,89%</t>
   </si>
   <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
+    <t>16,59%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1137,7 +1146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB04B0E1-1A05-4ABB-AD18-BFCDF6573685}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AAD9FC-6B54-49A7-B26A-552A613A750E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1856,13 +1865,13 @@
         <v>208398</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,13 +1886,13 @@
         <v>78780</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -1892,13 +1901,13 @@
         <v>28327</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -1907,13 +1916,13 @@
         <v>107107</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,13 +1937,13 @@
         <v>70856</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -1943,13 +1952,13 @@
         <v>38556</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -1958,13 +1967,13 @@
         <v>109413</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,7 +2029,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2032,13 +2041,13 @@
         <v>183261</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>108</v>
@@ -2047,13 +2056,13 @@
         <v>109291</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>280</v>
@@ -2062,13 +2071,13 @@
         <v>292551</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,13 +2092,13 @@
         <v>108338</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -2098,13 +2107,13 @@
         <v>47473</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>146</v>
@@ -2113,13 +2122,13 @@
         <v>155811</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,13 +2143,13 @@
         <v>73444</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>30</v>
@@ -2149,13 +2158,13 @@
         <v>28090</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>95</v>
@@ -2164,13 +2173,13 @@
         <v>101533</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,13 +2194,13 @@
         <v>40402</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -2200,13 +2209,13 @@
         <v>28092</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>66</v>
@@ -2215,13 +2224,13 @@
         <v>68494</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,7 +2286,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2289,13 +2298,13 @@
         <v>292786</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>224</v>
@@ -2304,13 +2313,13 @@
         <v>235359</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>527</v>
@@ -2319,13 +2328,13 @@
         <v>528145</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,13 +2349,13 @@
         <v>130884</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>61</v>
@@ -2355,13 +2364,13 @@
         <v>64375</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>202</v>
@@ -2370,13 +2379,13 @@
         <v>195259</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2400,13 @@
         <v>76723</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>42</v>
@@ -2406,13 +2415,13 @@
         <v>45723</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>120</v>
@@ -2421,13 +2430,13 @@
         <v>122446</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2451,13 @@
         <v>52189</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>40</v>
@@ -2457,13 +2466,13 @@
         <v>43603</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>90</v>
@@ -2472,13 +2481,13 @@
         <v>95792</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,13 +2555,13 @@
         <v>899124</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>534</v>
@@ -2561,13 +2570,13 @@
         <v>557802</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>1402</v>
@@ -2576,13 +2585,13 @@
         <v>1456926</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2606,13 @@
         <v>509953</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>205</v>
@@ -2612,13 +2621,13 @@
         <v>210615</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>694</v>
@@ -2627,13 +2636,13 @@
         <v>720568</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2657,13 @@
         <v>283055</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>119</v>
@@ -2663,13 +2672,13 @@
         <v>125077</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>386</v>
@@ -2678,13 +2687,13 @@
         <v>408132</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2708,13 @@
         <v>208939</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>121</v>
@@ -2714,13 +2723,13 @@
         <v>128739</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>317</v>
@@ -2729,13 +2738,13 @@
         <v>337678</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,7 +2800,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6520-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6520-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20E80E1B-6C4E-4D21-B8DB-300811B6BAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A70D3C22-BD05-44BC-854E-110BB026E7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{47AEC71F-9842-49A5-8812-7E1F8EF72331}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C1E4E747-A507-43BF-8AC0-5509C394767C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="196">
   <si>
     <t>Población según tener que trabajar los fines de semana durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -65,243 +65,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
   </si>
   <si>
     <t>Muchas veces</t>
   </si>
   <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
   </si>
   <si>
     <t>Siempre</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -413,7 +302,7 @@
     <t>15,79%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>45,2%</t>
@@ -1146,8 +1035,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AAD9FC-6B54-49A7-B26A-552A613A750E}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375E016C-2C53-41D3-BA19-A0AE06D3BFB3}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1264,10 +1153,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="D4" s="7">
-        <v>21210</v>
+        <v>167649</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1279,10 +1168,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="I4" s="7">
-        <v>9403</v>
+        <v>69809</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1294,10 +1183,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="N4" s="7">
-        <v>30613</v>
+        <v>237457</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1315,10 +1204,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="D5" s="7">
-        <v>18253</v>
+        <v>116901</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1330,10 +1219,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="I5" s="7">
-        <v>8908</v>
+        <v>44198</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1345,10 +1234,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="N5" s="7">
-        <v>27161</v>
+        <v>161099</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1366,10 +1255,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D6" s="7">
-        <v>9971</v>
+        <v>54108</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1381,10 +1270,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I6" s="7">
-        <v>2584</v>
+        <v>22937</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1396,10 +1285,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="N6" s="7">
-        <v>12554</v>
+        <v>77045</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1417,10 +1306,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7">
-        <v>7492</v>
+        <v>45492</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1432,10 +1321,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>3598</v>
+        <v>18488</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1447,10 +1336,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="N7" s="7">
-        <v>11091</v>
+        <v>63980</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1468,10 +1357,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>50</v>
+        <v>367</v>
       </c>
       <c r="D8" s="7">
-        <v>56926</v>
+        <v>384150</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1483,10 +1372,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="I8" s="7">
-        <v>24493</v>
+        <v>155432</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1498,10 +1387,10 @@
         <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>77</v>
+        <v>519</v>
       </c>
       <c r="N8" s="7">
-        <v>81419</v>
+        <v>539582</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1521,10 +1410,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="D9" s="7">
-        <v>146438</v>
+        <v>255429</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1536,10 +1425,10 @@
         <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="I9" s="7">
-        <v>60406</v>
+        <v>143344</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1551,10 +1440,10 @@
         <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>200</v>
+        <v>367</v>
       </c>
       <c r="N9" s="7">
-        <v>206844</v>
+        <v>398773</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1572,10 +1461,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="D10" s="7">
-        <v>98648</v>
+        <v>153830</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1587,10 +1476,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="I10" s="7">
-        <v>35290</v>
+        <v>54568</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1602,10 +1491,10 @@
         <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="N10" s="7">
-        <v>133939</v>
+        <v>208398</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1623,10 +1512,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D11" s="7">
-        <v>44137</v>
+        <v>78780</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1638,10 +1527,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I11" s="7">
-        <v>20354</v>
+        <v>28327</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1653,10 +1542,10 @@
         <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="N11" s="7">
-        <v>64491</v>
+        <v>107107</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1674,10 +1563,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D12" s="7">
-        <v>38000</v>
+        <v>70856</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -1689,10 +1578,10 @@
         <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="I12" s="7">
-        <v>14889</v>
+        <v>38556</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -1704,10 +1593,10 @@
         <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N12" s="7">
-        <v>52889</v>
+        <v>109413</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -1725,10 +1614,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>317</v>
+        <v>507</v>
       </c>
       <c r="D13" s="7">
-        <v>327223</v>
+        <v>558895</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1740,10 +1629,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="I13" s="7">
-        <v>130939</v>
+        <v>264795</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1755,10 +1644,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>442</v>
+        <v>754</v>
       </c>
       <c r="N13" s="7">
-        <v>458162</v>
+        <v>823690</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1778,10 +1667,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="D14" s="7">
-        <v>255429</v>
+        <v>183261</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -1793,10 +1682,10 @@
         <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="I14" s="7">
-        <v>143344</v>
+        <v>109291</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>92</v>
@@ -1808,10 +1697,10 @@
         <v>94</v>
       </c>
       <c r="M14" s="7">
-        <v>367</v>
+        <v>280</v>
       </c>
       <c r="N14" s="7">
-        <v>398773</v>
+        <v>292551</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>95</v>
@@ -1829,10 +1718,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="D15" s="7">
-        <v>153830</v>
+        <v>108338</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>98</v>
@@ -1844,10 +1733,10 @@
         <v>100</v>
       </c>
       <c r="H15" s="7">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I15" s="7">
-        <v>54568</v>
+        <v>47473</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>101</v>
@@ -1859,10 +1748,10 @@
         <v>103</v>
       </c>
       <c r="M15" s="7">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="N15" s="7">
-        <v>208398</v>
+        <v>155811</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>104</v>
@@ -1880,10 +1769,10 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D16" s="7">
-        <v>78780</v>
+        <v>73444</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>107</v>
@@ -1895,10 +1784,10 @@
         <v>109</v>
       </c>
       <c r="H16" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I16" s="7">
-        <v>28327</v>
+        <v>28090</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>110</v>
@@ -1910,10 +1799,10 @@
         <v>112</v>
       </c>
       <c r="M16" s="7">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N16" s="7">
-        <v>107107</v>
+        <v>101533</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>113</v>
@@ -1931,10 +1820,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D17" s="7">
-        <v>70856</v>
+        <v>40402</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>116</v>
@@ -1946,34 +1835,34 @@
         <v>118</v>
       </c>
       <c r="H17" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I17" s="7">
-        <v>38556</v>
+        <v>28092</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>66</v>
+      </c>
+      <c r="N17" s="7">
+        <v>68494</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M17" s="7">
-        <v>100</v>
-      </c>
-      <c r="N17" s="7">
-        <v>109413</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,10 +1871,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>507</v>
+        <v>374</v>
       </c>
       <c r="D18" s="7">
-        <v>558895</v>
+        <v>405444</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1997,10 +1886,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="I18" s="7">
-        <v>264795</v>
+        <v>212946</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2012,10 +1901,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>754</v>
+        <v>587</v>
       </c>
       <c r="N18" s="7">
-        <v>823690</v>
+        <v>618390</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2029,55 +1918,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>172</v>
+        <v>303</v>
       </c>
       <c r="D19" s="7">
-        <v>183261</v>
+        <v>292786</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>224</v>
+      </c>
+      <c r="I19" s="7">
+        <v>235359</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="7">
-        <v>108</v>
-      </c>
-      <c r="I19" s="7">
-        <v>109291</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>527</v>
+      </c>
+      <c r="N19" s="7">
+        <v>528145</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M19" s="7">
-        <v>280</v>
-      </c>
-      <c r="N19" s="7">
-        <v>292551</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,49 +1975,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="D20" s="7">
-        <v>108338</v>
+        <v>130884</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>61</v>
+      </c>
+      <c r="I20" s="7">
+        <v>64375</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="7">
-        <v>47</v>
-      </c>
-      <c r="I20" s="7">
-        <v>47473</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>202</v>
+      </c>
+      <c r="N20" s="7">
+        <v>195259</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M20" s="7">
-        <v>146</v>
-      </c>
-      <c r="N20" s="7">
-        <v>155811</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,49 +2026,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D21" s="7">
-        <v>73444</v>
+        <v>76723</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>42</v>
+      </c>
+      <c r="I21" s="7">
+        <v>45723</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="7">
-        <v>30</v>
-      </c>
-      <c r="I21" s="7">
-        <v>28090</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>120</v>
+      </c>
+      <c r="N21" s="7">
+        <v>122446</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="M21" s="7">
-        <v>95</v>
-      </c>
-      <c r="N21" s="7">
-        <v>101533</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,49 +2077,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D22" s="7">
-        <v>40402</v>
+        <v>52189</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>40</v>
+      </c>
+      <c r="I22" s="7">
+        <v>43603</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H22" s="7">
-        <v>28</v>
-      </c>
-      <c r="I22" s="7">
-        <v>28092</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>90</v>
+      </c>
+      <c r="N22" s="7">
+        <v>95792</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M22" s="7">
-        <v>66</v>
-      </c>
-      <c r="N22" s="7">
-        <v>68494</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,10 +2128,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>374</v>
+        <v>572</v>
       </c>
       <c r="D23" s="7">
-        <v>405444</v>
+        <v>552583</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2254,10 +2143,10 @@
         <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>213</v>
+        <v>367</v>
       </c>
       <c r="I23" s="7">
-        <v>212946</v>
+        <v>389060</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2269,10 +2158,10 @@
         <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>587</v>
+        <v>939</v>
       </c>
       <c r="N23" s="7">
-        <v>618390</v>
+        <v>941642</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2286,55 +2175,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>303</v>
+        <v>868</v>
       </c>
       <c r="D24" s="7">
-        <v>292786</v>
+        <v>899124</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>534</v>
+      </c>
+      <c r="I24" s="7">
+        <v>557802</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H24" s="7">
-        <v>224</v>
-      </c>
-      <c r="I24" s="7">
-        <v>235359</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>1402</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1456926</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="M24" s="7">
-        <v>527</v>
-      </c>
-      <c r="N24" s="7">
-        <v>528145</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,49 +2232,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>141</v>
+        <v>489</v>
       </c>
       <c r="D25" s="7">
-        <v>130884</v>
+        <v>509953</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>205</v>
+      </c>
+      <c r="I25" s="7">
+        <v>210615</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H25" s="7">
-        <v>61</v>
-      </c>
-      <c r="I25" s="7">
-        <v>64375</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>694</v>
+      </c>
+      <c r="N25" s="7">
+        <v>720568</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="M25" s="7">
-        <v>202</v>
-      </c>
-      <c r="N25" s="7">
-        <v>195259</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,49 +2283,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="D26" s="7">
-        <v>76723</v>
+        <v>283055</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="7">
+        <v>119</v>
+      </c>
+      <c r="I26" s="7">
+        <v>125077</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H26" s="7">
-        <v>42</v>
-      </c>
-      <c r="I26" s="7">
-        <v>45723</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>386</v>
+      </c>
+      <c r="N26" s="7">
+        <v>408132</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="M26" s="7">
-        <v>120</v>
-      </c>
-      <c r="N26" s="7">
-        <v>122446</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,49 +2334,49 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c r="D27" s="7">
-        <v>52189</v>
+        <v>208939</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="H27" s="7">
+        <v>121</v>
+      </c>
+      <c r="I27" s="7">
+        <v>128739</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H27" s="7">
-        <v>40</v>
-      </c>
-      <c r="I27" s="7">
-        <v>43603</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>317</v>
+      </c>
+      <c r="N27" s="7">
+        <v>337678</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="M27" s="7">
-        <v>90</v>
-      </c>
-      <c r="N27" s="7">
-        <v>95792</v>
-      </c>
-      <c r="O27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,10 +2385,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>572</v>
+        <v>1820</v>
       </c>
       <c r="D28" s="7">
-        <v>552582</v>
+        <v>1901071</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2511,10 +2400,10 @@
         <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>367</v>
+        <v>979</v>
       </c>
       <c r="I28" s="7">
-        <v>389060</v>
+        <v>1022233</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2526,10 +2415,10 @@
         <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>939</v>
+        <v>2799</v>
       </c>
       <c r="N28" s="7">
-        <v>941642</v>
+        <v>2923304</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2542,273 +2431,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>868</v>
-      </c>
-      <c r="D29" s="7">
-        <v>899124</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H29" s="7">
-        <v>534</v>
-      </c>
-      <c r="I29" s="7">
-        <v>557802</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1402</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1456926</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>489</v>
-      </c>
-      <c r="D30" s="7">
-        <v>509953</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H30" s="7">
-        <v>205</v>
-      </c>
-      <c r="I30" s="7">
-        <v>210615</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M30" s="7">
-        <v>694</v>
-      </c>
-      <c r="N30" s="7">
-        <v>720568</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>267</v>
-      </c>
-      <c r="D31" s="7">
-        <v>283055</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H31" s="7">
-        <v>119</v>
-      </c>
-      <c r="I31" s="7">
-        <v>125077</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M31" s="7">
-        <v>386</v>
-      </c>
-      <c r="N31" s="7">
-        <v>408132</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7">
-        <v>196</v>
-      </c>
-      <c r="D32" s="7">
-        <v>208939</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H32" s="7">
-        <v>121</v>
-      </c>
-      <c r="I32" s="7">
-        <v>128739</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="M32" s="7">
-        <v>317</v>
-      </c>
-      <c r="N32" s="7">
-        <v>337678</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1820</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1901071</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="7">
-        <v>979</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1022233</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2799</v>
-      </c>
-      <c r="N33" s="7">
-        <v>2923304</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>232</v>
+      <c r="A29" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
